--- a/data/Dispersal_matrixes/MatrixesTimeStratified.xlsx
+++ b/data/Dispersal_matrixes/MatrixesTimeStratified.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/799e103cf1ed2d46/Pesquisa/2021_ArtigoQ1 2 Platyrhinni-Asus/Platy_paper/data/Dispersal_matrixes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1775" documentId="8_{6FB39FB8-393C-43F8-8B96-117B7D94CDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC29C585-B37F-499E-941F-5D545DB9950A}"/>
+  <xr:revisionPtr revIDLastSave="1776" documentId="8_{6FB39FB8-393C-43F8-8B96-117B7D94CDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78F3379E-B532-497A-B1F5-9A5716AC5644}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D2018F55-6EE2-48EA-92DE-D5AF63E91621}"/>
   </bookViews>
@@ -16336,7 +16336,7 @@
   <dimension ref="A1:R159"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20544,7 +20544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A776DBFD-9CF0-4CE9-B373-673582A9F7AA}">
   <dimension ref="A1:Y163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B139" sqref="B139:K149"/>
     </sheetView>
   </sheetViews>
@@ -21015,7 +21015,7 @@
       <c r="K15" s="45"/>
       <c r="L15" s="45"/>
       <c r="N15" t="str">
-        <f t="shared" ref="N6:N15" si="0">B15&amp;" "&amp;C15&amp;" "&amp;D15&amp;" "&amp;E15&amp;" "&amp;F15&amp;" "&amp;G15&amp;" "&amp;H15&amp;" "&amp;I15&amp;" "&amp;J15&amp;" "&amp;K15&amp;" "&amp;L15</f>
+        <f t="shared" ref="N15" si="0">B15&amp;" "&amp;C15&amp;" "&amp;D15&amp;" "&amp;E15&amp;" "&amp;F15&amp;" "&amp;G15&amp;" "&amp;H15&amp;" "&amp;I15&amp;" "&amp;J15&amp;" "&amp;K15&amp;" "&amp;L15</f>
         <v xml:space="preserve">          </v>
       </c>
       <c r="P15" s="5"/>
@@ -21694,7 +21694,7 @@
       <c r="K42" s="45"/>
       <c r="L42" s="45"/>
       <c r="N42" t="str">
-        <f t="shared" ref="N33:N42" si="1">B42&amp;" "&amp;C42&amp;" "&amp;D42&amp;" "&amp;E42&amp;" "&amp;F42&amp;" "&amp;G42&amp;" "&amp;H42&amp;" "&amp;I42&amp;" "&amp;J42&amp;" "&amp;K42&amp;" "&amp;L42</f>
+        <f t="shared" ref="N42" si="1">B42&amp;" "&amp;C42&amp;" "&amp;D42&amp;" "&amp;E42&amp;" "&amp;F42&amp;" "&amp;G42&amp;" "&amp;H42&amp;" "&amp;I42&amp;" "&amp;J42&amp;" "&amp;K42&amp;" "&amp;L42</f>
         <v xml:space="preserve">          </v>
       </c>
       <c r="P42" s="5"/>
@@ -22313,7 +22313,7 @@
       <c r="K69" s="45"/>
       <c r="L69" s="45"/>
       <c r="N69" t="str">
-        <f t="shared" ref="N60:N69" si="2">B69&amp;" "&amp;C69&amp;" "&amp;D69&amp;" "&amp;E69&amp;" "&amp;F69&amp;" "&amp;G69&amp;" "&amp;H69&amp;" "&amp;I69&amp;" "&amp;J69&amp;" "&amp;K69&amp;" "&amp;L69</f>
+        <f t="shared" ref="N69" si="2">B69&amp;" "&amp;C69&amp;" "&amp;D69&amp;" "&amp;E69&amp;" "&amp;F69&amp;" "&amp;G69&amp;" "&amp;H69&amp;" "&amp;I69&amp;" "&amp;J69&amp;" "&amp;K69&amp;" "&amp;L69</f>
         <v xml:space="preserve">          </v>
       </c>
       <c r="P69" s="5"/>
@@ -22921,7 +22921,7 @@
       <c r="K96" s="45"/>
       <c r="L96" s="45"/>
       <c r="N96" t="str">
-        <f t="shared" ref="N87:N96" si="3">B96&amp;" "&amp;C96&amp;" "&amp;D96&amp;" "&amp;E96&amp;" "&amp;F96&amp;" "&amp;G96&amp;" "&amp;H96&amp;" "&amp;I96&amp;" "&amp;J96&amp;" "&amp;K96&amp;" "&amp;L96</f>
+        <f t="shared" ref="N96" si="3">B96&amp;" "&amp;C96&amp;" "&amp;D96&amp;" "&amp;E96&amp;" "&amp;F96&amp;" "&amp;G96&amp;" "&amp;H96&amp;" "&amp;I96&amp;" "&amp;J96&amp;" "&amp;K96&amp;" "&amp;L96</f>
         <v xml:space="preserve">          </v>
       </c>
       <c r="P96" s="5"/>
@@ -23534,7 +23534,7 @@
       <c r="K123" s="45"/>
       <c r="L123" s="45"/>
       <c r="N123" t="str">
-        <f t="shared" ref="N114:N123" si="4">B123&amp;" "&amp;C123&amp;" "&amp;D123&amp;" "&amp;E123&amp;" "&amp;F123&amp;" "&amp;G123&amp;" "&amp;H123&amp;" "&amp;I123&amp;" "&amp;J123&amp;" "&amp;K123&amp;" "&amp;L123</f>
+        <f t="shared" ref="N123" si="4">B123&amp;" "&amp;C123&amp;" "&amp;D123&amp;" "&amp;E123&amp;" "&amp;F123&amp;" "&amp;G123&amp;" "&amp;H123&amp;" "&amp;I123&amp;" "&amp;J123&amp;" "&amp;K123&amp;" "&amp;L123</f>
         <v xml:space="preserve">          </v>
       </c>
       <c r="P123" s="5"/>
@@ -24158,7 +24158,7 @@
       <c r="K150" s="45"/>
       <c r="L150" s="45"/>
       <c r="N150" t="str">
-        <f t="shared" ref="N141:N150" si="5">B150&amp;" "&amp;C150&amp;" "&amp;D150&amp;" "&amp;E150&amp;" "&amp;F150&amp;" "&amp;G150&amp;" "&amp;H150&amp;" "&amp;I150&amp;" "&amp;J150&amp;" "&amp;K150&amp;" "&amp;L150</f>
+        <f t="shared" ref="N150" si="5">B150&amp;" "&amp;C150&amp;" "&amp;D150&amp;" "&amp;E150&amp;" "&amp;F150&amp;" "&amp;G150&amp;" "&amp;H150&amp;" "&amp;I150&amp;" "&amp;J150&amp;" "&amp;K150&amp;" "&amp;L150</f>
         <v xml:space="preserve">          </v>
       </c>
       <c r="P150" s="5"/>
